--- a/ResultadoEleicoesDistritos/AVEIRO_SANTA MARIA DA FEIRA.xlsx
+++ b/ResultadoEleicoesDistritos/AVEIRO_SANTA MARIA DA FEIRA.xlsx
@@ -597,64 +597,64 @@
         <v>37995</v>
       </c>
       <c r="H2" t="n">
-        <v>1414</v>
+        <v>1447</v>
       </c>
       <c r="I2" t="n">
-        <v>3730</v>
+        <v>3824</v>
       </c>
       <c r="J2" t="n">
-        <v>15570</v>
+        <v>15754</v>
       </c>
       <c r="K2" t="n">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="L2" t="n">
-        <v>4256</v>
+        <v>4291</v>
       </c>
       <c r="M2" t="n">
-        <v>271</v>
+        <v>230</v>
       </c>
       <c r="N2" t="n">
-        <v>2740</v>
+        <v>2759</v>
       </c>
       <c r="O2" t="n">
         <v>9</v>
       </c>
       <c r="P2" t="n">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="R2" t="n">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="S2" t="n">
-        <v>1704</v>
+        <v>1745</v>
       </c>
       <c r="T2" t="n">
-        <v>2757</v>
+        <v>2672</v>
       </c>
       <c r="U2" t="n">
-        <v>195</v>
+        <v>230</v>
       </c>
       <c r="V2" t="n">
-        <v>24418</v>
+        <v>24191</v>
       </c>
       <c r="W2" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="X2" t="n">
-        <v>24270</v>
+        <v>24221</v>
       </c>
       <c r="Y2" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="Z2" t="n">
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="AA2" t="n">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
